--- a/data/trans_orig/Q47-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q47-Dificultad-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>170.7689530021644</v>
+        <v>170.8049806942349</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>172.1379868112813</v>
+        <v>172.117364966575</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>172.5690973123002</v>
+        <v>172.5403110584549</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>171.3214009548936</v>
+        <v>171.246635382218</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>159.0077191780877</v>
+        <v>158.9905344865535</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>160.1142515516906</v>
+        <v>160.1038573605018</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>160.4144733232802</v>
+        <v>160.4416175235261</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>160.9687017255953</v>
+        <v>160.9322159722723</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>163.636322195246</v>
+        <v>163.6051418594977</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>166.0150055099288</v>
+        <v>165.9962292562617</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>166.2796289253673</v>
+        <v>166.2652746859513</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>165.625446033816</v>
+        <v>165.6148545901761</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>172.0652071528677</v>
+        <v>172.057101252896</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>173.1392023519206</v>
+        <v>173.0816764714351</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>173.4592356965213</v>
+        <v>173.470793787589</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>172.6673288521968</v>
+        <v>172.6356133504777</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>159.9561825930678</v>
+        <v>159.9726102489553</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>160.938897050798</v>
+        <v>160.9281119855642</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>161.2371563475673</v>
+        <v>161.2383809550678</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>161.8936623042472</v>
+        <v>161.8309103776755</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>164.6394087275681</v>
+        <v>164.5629968878966</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>166.8639034860675</v>
+        <v>166.7750204020192</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>167.088543634118</v>
+        <v>167.0176157704636</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>166.6458323633954</v>
+        <v>166.7102660812307</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>172.270153129902</v>
+        <v>172.3124046726466</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>172.3961659338526</v>
+        <v>172.3774873365091</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>173.4890498672077</v>
+        <v>173.46025533798</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>172.4124407075906</v>
+        <v>172.4177036236246</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>160.4036272076206</v>
+        <v>160.3609197370264</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>160.5984364463626</v>
+        <v>160.5884549280059</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>161.3756577807319</v>
+        <v>161.311475723405</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>161.4117001749543</v>
+        <v>161.3558290529384</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>166.3450479534513</v>
+        <v>166.4242125366297</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>166.2769157268418</v>
+        <v>166.2476515934184</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>167.1372618586173</v>
+        <v>167.1604337354162</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>166.5343820632952</v>
+        <v>166.5398181112181</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>173.1731983165409</v>
+        <v>173.1312888499163</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>173.3933057452905</v>
+        <v>173.3568069466638</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>174.5566040684061</v>
+        <v>174.5492738372251</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>173.4069115375433</v>
+        <v>173.434505741428</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>161.1825018125888</v>
+        <v>161.1411801645321</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>161.4643425124487</v>
+        <v>161.4295145231435</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>162.2183654332841</v>
+        <v>162.1973725100707</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>162.0828395836535</v>
+        <v>162.0341342590195</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>167.1662670557447</v>
+        <v>167.1761969882847</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>167.0874072410904</v>
+        <v>167.1347011795125</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>168.0186818557214</v>
+        <v>168.0165257179613</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>167.3122504995673</v>
+        <v>167.3639131426752</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>174.1928759481458</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>174.1208841155187</v>
+        <v>174.1208841155186</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>161.6176097581796</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>173.415200080399</v>
+        <v>173.3938180090742</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>172.7032929202279</v>
+        <v>172.6971742154874</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>173.6841670508672</v>
+        <v>173.6305096513488</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>173.6284706828043</v>
+        <v>173.6315025286389</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>161.1474886271817</v>
+        <v>161.1814645142552</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>160.5431243696262</v>
+        <v>160.5806256345655</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>161.2997745520903</v>
+        <v>161.3343853184276</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>161.8724962579641</v>
+        <v>161.886389965432</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>167.6955161050261</v>
+        <v>167.6985710479399</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>166.7699620562427</v>
+        <v>166.7529363339545</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>167.7958245437296</v>
+        <v>167.8398292867755</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>167.840463975835</v>
+        <v>167.7941448620242</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>174.2274972207465</v>
+        <v>174.2072563065015</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>173.8354685076709</v>
+        <v>173.8008105834722</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>174.7266697341707</v>
+        <v>174.7194117630163</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>174.6164111039088</v>
+        <v>174.6307501820661</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>162.0472752633413</v>
+        <v>162.0502540561725</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>161.4786279806421</v>
+        <v>161.5002033121808</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>162.3529408013127</v>
+        <v>162.3633916927536</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>162.5977000828605</v>
+        <v>162.6152752697849</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>168.4720808461203</v>
+        <v>168.4961187084687</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>167.663956570002</v>
+        <v>167.6914639659179</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>168.7813665796109</v>
+        <v>168.7857942685027</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>168.6756897559948</v>
+        <v>168.6391899467082</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>174.8125948089437</v>
+        <v>174.7514484683106</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>173.7872649059437</v>
+        <v>173.8152069809985</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>174.267812430358</v>
+        <v>174.2872234919955</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>174.482443735488</v>
+        <v>174.4503745539959</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>162.3765238076179</v>
+        <v>162.3807207851511</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>161.597017999221</v>
+        <v>161.5527293739875</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>161.2514524438085</v>
+        <v>161.2384935579319</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>162.5390532352769</v>
+        <v>162.5324646637186</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>169.4412825270274</v>
+        <v>169.4521496591308</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>168.0490824677598</v>
+        <v>168.0983890269677</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>167.9328312896064</v>
+        <v>167.9759207869754</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>168.7560585547528</v>
+        <v>168.7174527281188</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>176.2003769424984</v>
+        <v>176.1654016034327</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>175.1080311157064</v>
+        <v>175.1467060246956</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>175.7864656267936</v>
+        <v>175.7970922520338</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>175.502063553496</v>
+        <v>175.3817588628528</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>163.6279407879781</v>
+        <v>163.6794807990203</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>162.9457705015188</v>
+        <v>162.9760355218784</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>162.4279841544425</v>
+        <v>162.4479708297715</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>163.3043213073747</v>
+        <v>163.2762704342865</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>170.7548950658337</v>
+        <v>170.7486956370488</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>169.3084090280079</v>
+        <v>169.3250705129419</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>169.2992053244571</v>
+        <v>169.3172598545651</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>169.6319942259844</v>
+        <v>169.6092008417579</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>172.9512519140442</v>
+        <v>172.9462012098091</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>172.853480737055</v>
+        <v>172.8462347741664</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>173.6196339371644</v>
+        <v>173.6139139733285</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>173.4665256137769</v>
+        <v>173.4528216221905</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>160.6309701484994</v>
+        <v>160.6487530305226</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>160.7843325837077</v>
+        <v>160.7961856429842</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>161.2184314667392</v>
+        <v>161.205323199515</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>161.9146649430343</v>
+        <v>161.9231741666057</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>166.7629409527767</v>
+        <v>166.7708050361658</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>166.8091883213192</v>
+        <v>166.7609641107364</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>167.3151875992878</v>
+        <v>167.3020965281255</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>167.5868685128381</v>
+        <v>167.5538722482461</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>173.4839270566517</v>
+        <v>173.4906636506489</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>173.3868052130878</v>
+        <v>173.3832078726167</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>174.1677824709304</v>
+        <v>174.1392659909192</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>174.0007300353386</v>
+        <v>173.9965990806731</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>161.1173705703974</v>
+        <v>161.1363515633799</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>161.2777903217882</v>
+        <v>161.2700704254524</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>161.7161939228446</v>
+        <v>161.6898302178798</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>162.2971132016328</v>
+        <v>162.2846239934684</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>167.2193422842296</v>
+        <v>167.2118424695585</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>167.2682995047189</v>
+        <v>167.2275154302276</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>167.8127443263653</v>
+        <v>167.7944419539703</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>168.0068201816899</v>
+        <v>168.016182755159</v>
       </c>
     </row>
     <row r="19">
